--- a/DATA_goal/Junction_Flooding_298.xlsx
+++ b/DATA_goal/Junction_Flooding_298.xlsx
@@ -446,31 +446,31 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41730.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>34.58</v>
+        <v>3.46</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>38.93</v>
+        <v>3.89</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>186.05</v>
+        <v>18.61</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>35.26</v>
+        <v>3.53</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.89</v>
+        <v>2.29</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>34.9</v>
+        <v>3.49</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41730.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.91</v>
+        <v>2.19</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.78</v>
+        <v>1.58</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>47.51</v>
+        <v>4.75</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38.29</v>
+        <v>3.83</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>64.78</v>
+        <v>6.48</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.97</v>
+        <v>2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>253.63</v>
+        <v>25.36</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>47.93</v>
+        <v>4.79</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.91</v>
+        <v>3.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.63</v>
+        <v>1.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.95</v>
+        <v>0.29</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.88</v>
+        <v>3.19</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.97</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>59.17</v>
+        <v>5.92</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41730.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>32.76</v>
+        <v>3.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.37</v>
+        <v>2.64</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.96</v>
+        <v>4.8</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.27</v>
+        <v>1.83</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>172.38</v>
+        <v>17.24</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>33.08</v>
+        <v>3.31</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>22.01</v>
+        <v>2.2</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.97</v>
+        <v>2.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.15</v>
+        <v>1.01</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.78</v>
+        <v>1.38</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.8</v>
+        <v>4.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41730.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.53</v>
+        <v>2.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.88</v>
+        <v>0.39</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.66</v>
+        <v>5.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.05</v>
+        <v>1.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41730.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.55</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>37.31</v>
+        <v>3.73</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>3.42</v>
+        <v>0.34</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41730.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="X7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.08</v>
-      </c>
       <c r="AG7" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41730.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17.58</v>
+        <v>1.76</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>38.24</v>
+        <v>3.82</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>31.28</v>
+        <v>3.13</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>47.21</v>
+        <v>4.72</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>19.56</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>202.09</v>
+        <v>20.21</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>38.28</v>
+        <v>3.83</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>25.76</v>
+        <v>2.58</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>23.78</v>
+        <v>2.38</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.92</v>
+        <v>0.99</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.13</v>
+        <v>1.61</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>42.53</v>
+        <v>4.25</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41730.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>16.63</v>
+        <v>1.66</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>31.03</v>
+        <v>3.1</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="P9" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T9" s="4" t="n">
         <v>10.49</v>
       </c>
-      <c r="Q9" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S9" s="4" t="n">
+      <c r="U9" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG9" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>104.85</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>14.91</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>3.8</v>
-      </c>
       <c r="AH9" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41730.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>2.96</v>
+        <v>0.3</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AG10" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AH10" s="4" t="n">
         <v>0.37</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>3.73</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_298.xlsx
+++ b/DATA_goal/Junction_Flooding_298.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -454,23 +454,23 @@
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -652,325 +652,325 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41730.34027777778</v>
+        <v>44979.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.46</v>
+        <v>2.88</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.97</v>
+        <v>1.63</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.2</v>
+        <v>0.96</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.33</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>3.49</v>
+        <v>2.77</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41730.34722222222</v>
+        <v>44979.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.19</v>
+        <v>1.76</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.75</v>
+        <v>3.86</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.83</v>
+        <v>3.07</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.48</v>
+        <v>5.19</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.93</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.36</v>
+        <v>20.44</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.79</v>
+        <v>3.89</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.19</v>
+        <v>2.58</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.19</v>
+        <v>2.59</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.92</v>
+        <v>4.76</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41730.35416666666</v>
+        <v>44979.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.51</v>
+        <v>1.96</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.45</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.28</v>
+        <v>4.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.64</v>
+        <v>3.46</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.8</v>
+        <v>5.99</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M4" s="4" t="n">
         <v>1.83</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L4" s="4" t="n">
+      <c r="N4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q4" s="4" t="n">
         <v>1.31</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.01</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>17.24</v>
+        <v>22.73</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.31</v>
+        <v>4.31</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.15</v>
+        <v>1.51</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.86</v>
+        <v>1.12</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.38</v>
+        <v>5.46</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41730.36111111111</v>
+        <v>44979.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.07000000000000001</v>
@@ -982,25 +982,25 @@
         <v>0.89</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>0.64</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0.46</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0.13</v>
@@ -1030,16 +1030,16 @@
         <v>0.38</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>0.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.34</v>
@@ -1054,10 +1054,10 @@
         <v>0.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>0.2</v>
@@ -1068,626 +1068,106 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41730.36805555555</v>
+        <v>44979.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.37</v>
+        <v>16.73</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.25</v>
+        <v>12.45</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.99</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>36.58</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.63</v>
+        <v>29.73</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.29</v>
+        <v>13.12</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.34</v>
+        <v>48.52</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.45</v>
+        <v>20.36</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.19</v>
+        <v>9.01</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.27</v>
+        <v>13.3</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.33</v>
+        <v>14.67</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.34</v>
+        <v>15.6</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.09</v>
+        <v>4.23</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.29</v>
+        <v>13.16</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.41</v>
+        <v>18.68</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.27</v>
+        <v>11.14</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.67</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>3.73</v>
+        <v>192.95</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.83</v>
+        <v>36.7</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.27</v>
+        <v>12.15</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.54</v>
+        <v>24.63</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.28</v>
+        <v>12.93</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.62</v>
+        <v>23.9</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.24</v>
+        <v>10.73</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.22</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.26</v>
+        <v>11.21</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.34</v>
+        <v>15.38</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.23</v>
+        <v>43.92</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.14</v>
+        <v>6.81</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41730.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41730.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41730.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41730.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41730.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>26.71</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>42.41</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>171.2</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>38.24</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>13.54</v>
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_298.xlsx
+++ b/DATA_goal/Junction_Flooding_298.xlsx
@@ -451,10 +451,10 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -462,14 +462,14 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>44979.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.88</v>
+        <v>28.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.28</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.12</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44979.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.64</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.79</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.86</v>
+        <v>38.62</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.07</v>
+        <v>30.71</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.76</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.19</v>
+        <v>51.9</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.54</v>
+        <v>15.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.45</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.96</v>
+        <v>19.59</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>204.41</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>38.88</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.76</v>
+        <v>47.58</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44979.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.59</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.45</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.28</v>
+        <v>42.84</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.46</v>
+        <v>34.58</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.99</v>
+        <v>59.9</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.85</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.43</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.16</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.83</v>
+        <v>18.27</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.18</v>
+        <v>21.85</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.14</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.73</v>
+        <v>227.31</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.31</v>
+        <v>43.11</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.88</v>
+        <v>28.82</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.07</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.92</v>
+        <v>29.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.8</v>
+        <v>17.96</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.46</v>
+        <v>54.63</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44979.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.5</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.16</v>
+        <v>21.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.57</v>
+        <v>55.67</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_298.xlsx
+++ b/DATA_goal/Junction_Flooding_298.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44979.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.51</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.83</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.49</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.24</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.57</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.47</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.33</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.42</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.12</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.77</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.57</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.81</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.9</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.69</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44979.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.64</v>
+        <v>17.641</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.79</v>
+        <v>12.787</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.802</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>38.62</v>
+        <v>38.624</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.71</v>
+        <v>30.705</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>13.76</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>51.9</v>
+        <v>51.905</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.31</v>
+        <v>9.311</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.63</v>
+        <v>13.633</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.42</v>
+        <v>15.423</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.45</v>
+        <v>16.452</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.47</v>
+        <v>4.468</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.59</v>
+        <v>19.594</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.401</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.056</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>204.41</v>
+        <v>204.412</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.88</v>
+        <v>38.883</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.79</v>
+        <v>25.794</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.43</v>
+        <v>13.432</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.43</v>
+        <v>2.433</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.87</v>
+        <v>25.869</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.21</v>
+        <v>10.207</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.02</v>
+        <v>12.021</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.09</v>
+        <v>16.089</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>47.58</v>
+        <v>47.583</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>7.09</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.05</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="4">
@@ -863,28 +863,28 @@
         <v>44979.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.59</v>
+        <v>19.586</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.45</v>
+        <v>14.451</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1.41</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>42.84</v>
+        <v>42.843</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.58</v>
+        <v>34.582</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.33</v>
+        <v>15.331</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>59.9</v>
+        <v>59.901</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.85</v>
+        <v>23.851</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>10.49</v>
@@ -893,73 +893,73 @@
         <v>15.43</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.16</v>
+        <v>17.155</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.27</v>
+        <v>18.266</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.95</v>
+        <v>4.952</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>21.85</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.14</v>
+        <v>13.141</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.908</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>227.31</v>
+        <v>227.309</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>43.11</v>
+        <v>43.114</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.82</v>
+        <v>28.824</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.07</v>
+        <v>15.074</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.42</v>
+        <v>2.424</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>29.24</v>
+        <v>29.241</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.21</v>
+        <v>11.212</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>13.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.96</v>
+        <v>17.961</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>54.63</v>
+        <v>54.633</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.94</v>
+        <v>7.942</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.79</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44979.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>29.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>48.52</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.63</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_298.xlsx
+++ b/DATA_goal/Junction_Flooding_298.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44979.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.19</v>
+        <v>5.189</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.72</v>
+        <v>3.725</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.5</v>
+        <v>11.497</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.866</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.02</v>
+        <v>4.024</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.59</v>
+        <v>21.587</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.4</v>
+        <v>6.399</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.76</v>
+        <v>2.758</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.85</v>
+        <v>3.848</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.59</v>
+        <v>4.593</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.96</v>
+        <v>4.959</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.34</v>
+        <v>1.337</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.84</v>
+        <v>5.841</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.72</v>
+        <v>3.718</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.388</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.67</v>
+        <v>55.672</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.85</v>
+        <v>11.846</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.77</v>
+        <v>7.774</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>3.97</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.846</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.94</v>
+        <v>9.942</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.11</v>
+        <v>3.107</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.64</v>
+        <v>3.643</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.78</v>
+        <v>4.778</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.15</v>
+        <v>20.154</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>2.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.77</v>
+        <v>4.775</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44979.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>192.95</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>43.92</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_298.xlsx
+++ b/DATA_goal/Junction_Flooding_298.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44979.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.189</v>
+        <v>5.19</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.725</v>
+        <v>3.72</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.497</v>
+        <v>11.5</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.866</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.024</v>
+        <v>4.02</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.587</v>
+        <v>21.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.399</v>
+        <v>6.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.758</v>
+        <v>2.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.848</v>
+        <v>3.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.593</v>
+        <v>4.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.959</v>
+        <v>4.96</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.337</v>
+        <v>1.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.136</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.841</v>
+        <v>5.84</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.718</v>
+        <v>3.72</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.669</v>
+        <v>0.67</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.388</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.672</v>
+        <v>55.67</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.846</v>
+        <v>11.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.817</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.774</v>
+        <v>7.77</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>3.97</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.846</v>
+        <v>0.85</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.942</v>
+        <v>9.94</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.372</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.107</v>
+        <v>3.11</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.643</v>
+        <v>3.64</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.778</v>
+        <v>4.78</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.154</v>
+        <v>20.15</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>2.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.775</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44979.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>29.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>48.52</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.95</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.63</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.19</v>
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>
